--- a/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44866AA0-1B20-4745-9E6C-1FC86AC40F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99850264-9C0A-40DB-B2CE-C018D5E60DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F2A0C33-587D-4048-B62D-BB32CBFCCB1C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{63B45040-95E9-4EE6-8DEC-A55F4DAF1FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
     <t>78,27%</t>
   </si>
   <si>
@@ -359,6 +359,54 @@
     <t>36,45%</t>
   </si>
   <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
@@ -413,54 +461,6 @@
     <t>20,22%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
     <t>72,44%</t>
   </si>
   <si>
@@ -566,6 +566,60 @@
     <t>26,0%</t>
   </si>
   <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
     <t>83,75%</t>
   </si>
   <si>
@@ -620,60 +674,6 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
     <t>83,26%</t>
   </si>
   <si>
@@ -785,6 +785,54 @@
     <t>21,99%</t>
   </si>
   <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
     <t>86,68%</t>
   </si>
   <si>
@@ -837,54 +885,6 @@
   </si>
   <si>
     <t>16,52%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
   </si>
   <si>
     <t>82,33%</t>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7867741B-5923-432B-B2AE-1F05526124DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC23DB3-22C4-42BD-BA3F-49F58578B1CA}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="D7" s="7">
-        <v>236136</v>
+        <v>168817</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1606,10 +1606,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="I7" s="7">
-        <v>229554</v>
+        <v>168205</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1621,10 +1621,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>694</v>
+        <v>505</v>
       </c>
       <c r="N7" s="7">
-        <v>465691</v>
+        <v>337022</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1642,10 +1642,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>45362</v>
+        <v>49224</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1657,10 +1657,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>36049</v>
+        <v>37017</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1672,10 +1672,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="N8" s="7">
-        <v>81410</v>
+        <v>86241</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1693,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1708,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1723,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="D10" s="7">
-        <v>168817</v>
+        <v>236136</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1761,10 +1761,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="I10" s="7">
-        <v>168205</v>
+        <v>229554</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1776,10 +1776,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>505</v>
+        <v>694</v>
       </c>
       <c r="N10" s="7">
-        <v>337022</v>
+        <v>465691</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1797,10 +1797,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>49224</v>
+        <v>45362</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1812,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>37017</v>
+        <v>36049</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1827,10 +1827,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N11" s="7">
-        <v>86241</v>
+        <v>81410</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1848,10 +1848,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1878,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2064,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A239F74-AF86-4614-8604-7B6CF1C48C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6372B904-4BED-4E7A-B224-5BE8AB02EB8E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2337,10 +2337,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="D7" s="7">
-        <v>209458</v>
+        <v>172834</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2352,34 +2352,34 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="I7" s="7">
-        <v>225516</v>
+        <v>167671</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>475</v>
+      </c>
+      <c r="N7" s="7">
+        <v>340505</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="7">
-        <v>630</v>
-      </c>
-      <c r="N7" s="7">
-        <v>434975</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2388,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
-        <v>62036</v>
+        <v>68415</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>86</v>
+      </c>
+      <c r="I8" s="7">
+        <v>61801</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="7">
-        <v>45</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30895</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>180</v>
+      </c>
+      <c r="N8" s="7">
+        <v>130216</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="7">
-        <v>135</v>
-      </c>
-      <c r="N8" s="7">
-        <v>92931</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>271494</v>
+        <v>241249</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2454,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2469,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>527906</v>
+        <v>470721</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2492,49 +2492,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="D10" s="7">
-        <v>172834</v>
+        <v>209458</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>320</v>
+      </c>
+      <c r="I10" s="7">
+        <v>225516</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="7">
-        <v>235</v>
-      </c>
-      <c r="I10" s="7">
-        <v>167671</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>630</v>
+      </c>
+      <c r="N10" s="7">
+        <v>434975</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="7">
-        <v>475</v>
-      </c>
-      <c r="N10" s="7">
-        <v>340505</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,28 +2543,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>68415</v>
+        <v>62036</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>45</v>
+      </c>
+      <c r="I11" s="7">
+        <v>30895</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H11" s="7">
-        <v>86</v>
-      </c>
-      <c r="I11" s="7">
-        <v>61801</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>135</v>
@@ -2573,10 +2573,10 @@
         <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N11" s="7">
-        <v>130216</v>
+        <v>92931</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2594,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="D12" s="7">
-        <v>241249</v>
+        <v>271494</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2624,10 +2624,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>470721</v>
+        <v>527906</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2686,7 +2686,7 @@
         <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>147</v>
@@ -2740,7 +2740,7 @@
         <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64D9821-6EB0-452D-8111-36A08AD655E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C113CE8F-1A1F-4B99-A62B-46DE50F8CE25}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3083,10 +3083,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D7" s="7">
-        <v>235169</v>
+        <v>216213</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -3098,10 +3098,10 @@
         <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="I7" s="7">
-        <v>234420</v>
+        <v>194031</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>178</v>
@@ -3113,10 +3113,10 @@
         <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="N7" s="7">
-        <v>469589</v>
+        <v>410244</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>181</v>
@@ -3134,10 +3134,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>45642</v>
+        <v>33839</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>184</v>
@@ -3149,10 +3149,10 @@
         <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>33350</v>
+        <v>41302</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>187</v>
@@ -3164,10 +3164,10 @@
         <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>78992</v>
+        <v>75141</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3185,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>280811</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>548581</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3238,10 +3238,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>216213</v>
+        <v>235169</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3253,10 +3253,10 @@
         <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="I10" s="7">
-        <v>194031</v>
+        <v>234420</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>196</v>
@@ -3268,10 +3268,10 @@
         <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="N10" s="7">
-        <v>410244</v>
+        <v>469589</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>199</v>
@@ -3289,10 +3289,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>33839</v>
+        <v>45642</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>202</v>
@@ -3304,10 +3304,10 @@
         <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>41302</v>
+        <v>33350</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>205</v>
@@ -3319,10 +3319,10 @@
         <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N11" s="7">
-        <v>75141</v>
+        <v>78992</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>208</v>
@@ -3340,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>280811</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3355,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3370,10 +3370,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>548581</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3556,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D2C01E-941B-4F61-B568-8491624FE422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2098A0D-8095-442C-95CE-21D22AED22E4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>413</v>
+        <v>230</v>
       </c>
       <c r="D7" s="7">
-        <v>349054</v>
+        <v>171582</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>248</v>
@@ -3844,10 +3844,10 @@
         <v>250</v>
       </c>
       <c r="H7" s="7">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="I7" s="7">
-        <v>300907</v>
+        <v>167621</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>251</v>
@@ -3859,10 +3859,10 @@
         <v>253</v>
       </c>
       <c r="M7" s="7">
-        <v>806</v>
+        <v>467</v>
       </c>
       <c r="N7" s="7">
-        <v>649962</v>
+        <v>339203</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>254</v>
@@ -3871,7 +3871,7 @@
         <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +3880,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>53656</v>
+        <v>33473</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>43</v>
+      </c>
+      <c r="I8" s="7">
+        <v>29915</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="7">
-        <v>69</v>
-      </c>
-      <c r="I8" s="7">
-        <v>49901</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>84</v>
+      </c>
+      <c r="N8" s="7">
+        <v>63388</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M8" s="7">
-        <v>135</v>
-      </c>
-      <c r="N8" s="7">
-        <v>103557</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,10 +3931,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>280</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>197536</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>402591</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3984,49 +3984,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>230</v>
+        <v>413</v>
       </c>
       <c r="D10" s="7">
-        <v>171582</v>
+        <v>349054</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>393</v>
+      </c>
+      <c r="I10" s="7">
+        <v>300907</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H10" s="7">
-        <v>237</v>
-      </c>
-      <c r="I10" s="7">
-        <v>167621</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>806</v>
+      </c>
+      <c r="N10" s="7">
+        <v>649962</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M10" s="7">
-        <v>467</v>
-      </c>
-      <c r="N10" s="7">
-        <v>339203</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,46 +4035,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>33473</v>
+        <v>53656</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>69</v>
+      </c>
+      <c r="I11" s="7">
+        <v>49901</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="7">
-        <v>43</v>
-      </c>
-      <c r="I11" s="7">
-        <v>29915</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>135</v>
+      </c>
+      <c r="N11" s="7">
+        <v>103557</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M11" s="7">
-        <v>84</v>
-      </c>
-      <c r="N11" s="7">
-        <v>63388</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>281</v>
@@ -4086,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>197536</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4116,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>402591</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4145,7 +4145,7 @@
         <v>616792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>282</v>
@@ -4178,7 +4178,7 @@
         <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>288</v>
@@ -4196,7 +4196,7 @@
         <v>108912</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>289</v>
@@ -4232,7 +4232,7 @@
         <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99850264-9C0A-40DB-B2CE-C018D5E60DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F054F8C-9DC3-4523-8934-8F229B90D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{63B45040-95E9-4EE6-8DEC-A55F4DAF1FE2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBF9670D-A5A1-4395-84FB-7F7A7F5BF2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,865 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>72,74%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>84,5%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>84,41%</t>
   </si>
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1159,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1033,39 +1255,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1117,7 +1339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1228,13 +1450,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1243,6 +1458,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1307,19 +1529,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC23DB3-22C4-42BD-BA3F-49F58578B1CA}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E201D5-030A-4BFD-AF9F-945C1D3FB056}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1436,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>160718</v>
+        <v>33377</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1451,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>151601</v>
+        <v>33143</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1466,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>469</v>
+        <v>102</v>
       </c>
       <c r="N4" s="7">
-        <v>312318</v>
+        <v>66520</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1487,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>62443</v>
+        <v>88003</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1502,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="I5" s="7">
-        <v>58595</v>
+        <v>73028</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1517,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>121039</v>
+        <v>161031</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1538,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1553,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1568,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1591,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>168817</v>
+        <v>68943</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1606,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>168205</v>
+        <v>51262</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1621,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>505</v>
+        <v>181</v>
       </c>
       <c r="N7" s="7">
-        <v>337022</v>
+        <v>120205</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1642,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>49224</v>
+        <v>184813</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1657,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="I8" s="7">
-        <v>37017</v>
+        <v>201943</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1672,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>129</v>
+        <v>580</v>
       </c>
       <c r="N8" s="7">
-        <v>86241</v>
+        <v>386756</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1693,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1723,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1746,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>236136</v>
+        <v>20810</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1761,34 +2003,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>229554</v>
+        <v>21108</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>63</v>
+      </c>
+      <c r="N10" s="7">
+        <v>41918</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>694</v>
-      </c>
-      <c r="N10" s="7">
-        <v>465691</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,49 +2039,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7">
-        <v>45362</v>
+        <v>120705</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>159</v>
+      </c>
+      <c r="I11" s="7">
+        <v>106440</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>54</v>
-      </c>
-      <c r="I11" s="7">
-        <v>36049</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>340</v>
+      </c>
+      <c r="N11" s="7">
+        <v>227145</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>122</v>
-      </c>
-      <c r="N11" s="7">
-        <v>81410</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1878,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1895,55 +2137,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>851</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>565671</v>
+        <v>33899</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26148</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>817</v>
-      </c>
-      <c r="I13" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>90</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60047</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,49 +2194,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>157029</v>
+        <v>172150</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>247</v>
+      </c>
+      <c r="I14" s="7">
+        <v>167949</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>201</v>
-      </c>
-      <c r="I14" s="7">
-        <v>131661</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>506</v>
+      </c>
+      <c r="N14" s="7">
+        <v>340099</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>436</v>
-      </c>
-      <c r="N14" s="7">
-        <v>288690</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,55 +2245,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>235</v>
+      </c>
+      <c r="D16" s="7">
+        <v>157029</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>201</v>
+      </c>
+      <c r="I16" s="7">
+        <v>131661</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>436</v>
+      </c>
+      <c r="N16" s="7">
+        <v>288690</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>851</v>
+      </c>
+      <c r="D17" s="7">
+        <v>565671</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>817</v>
+      </c>
+      <c r="I17" s="7">
+        <v>549360</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1668</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1115031</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2064,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6372B904-4BED-4E7A-B224-5BE8AB02EB8E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734D2810-2DAB-4B19-B131-3CB8DA7AFF57}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2182,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>161241</v>
+        <v>40102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>149741</v>
+        <v>51020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>453</v>
+        <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>310982</v>
+        <v>91122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D5" s="7">
-        <v>76367</v>
+        <v>104332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="I5" s="7">
-        <v>75122</v>
+        <v>95741</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="N5" s="7">
-        <v>151488</v>
+        <v>200073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237608</v>
+        <v>144434</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>224863</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>674</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>462470</v>
+        <v>291195</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2337,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
-        <v>172834</v>
+        <v>96303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>107</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="7">
-        <v>235</v>
-      </c>
       <c r="I7" s="7">
-        <v>167671</v>
+        <v>75294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="N7" s="7">
-        <v>340505</v>
+        <v>171598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>68415</v>
+        <v>171946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="I8" s="7">
-        <v>61801</v>
+        <v>160311</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>180</v>
+        <v>473</v>
       </c>
       <c r="N8" s="7">
-        <v>130216</v>
+        <v>332256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7">
-        <v>241249</v>
+        <v>268249</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>235605</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>470721</v>
+        <v>503854</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2492,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>209458</v>
+        <v>27582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>225516</v>
+        <v>22629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>630</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>434975</v>
+        <v>50211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7">
-        <v>62036</v>
+        <v>130989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>30895</v>
+        <v>134414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>135</v>
+        <v>381</v>
       </c>
       <c r="N11" s="7">
-        <v>92931</v>
+        <v>265403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>271494</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2624,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>527906</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2641,55 +3044,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>777</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>543535</v>
+        <v>42830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>781</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>542928</v>
+        <v>18874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>1558</v>
+        <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>1086462</v>
+        <v>61704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>206817</v>
+        <v>136268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7">
-        <v>167818</v>
+        <v>152463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="N14" s="7">
-        <v>374635</v>
+        <v>288731</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,55 +3152,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>264</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179098</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350435</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>293</v>
+      </c>
+      <c r="D16" s="7">
+        <v>206817</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
+        <v>243</v>
+      </c>
+      <c r="I16" s="7">
+        <v>167818</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="7">
+        <v>536</v>
+      </c>
+      <c r="N16" s="7">
+        <v>374635</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>777</v>
+      </c>
+      <c r="D17" s="7">
+        <v>543535</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
+        <v>781</v>
+      </c>
+      <c r="I17" s="7">
+        <v>542928</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1558</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1086462</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1070</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>750352</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1024</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>710746</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2094</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1461097</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2810,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C113CE8F-1A1F-4B99-A62B-46DE50F8CE25}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5DBBF-8F19-4C0F-9434-6254D3B41468}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2827,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>168117</v>
+        <v>24016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>151836</v>
+        <v>28663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="N4" s="7">
-        <v>319953</v>
+        <v>52679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>45046</v>
+        <v>100148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="I5" s="7">
-        <v>49432</v>
+        <v>102991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>94478</v>
+        <v>203139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3045,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3060,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3083,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>216213</v>
+        <v>42209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>194031</v>
+        <v>45267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>607</v>
+        <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>410244</v>
+        <v>87476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>33839</v>
+        <v>215852</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="I8" s="7">
-        <v>41302</v>
+        <v>165250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>116</v>
+        <v>576</v>
       </c>
       <c r="N8" s="7">
-        <v>75141</v>
+        <v>381102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3238,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>235169</v>
+        <v>30963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>234420</v>
+        <v>30604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>645</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>469589</v>
+        <v>61567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>45642</v>
+        <v>157609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>33350</v>
+        <v>158295</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="N11" s="7">
-        <v>78992</v>
+        <v>315904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>280811</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3355,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3370,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>548581</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3387,55 +3951,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>886</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>619499</v>
+        <v>27340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>867</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>580287</v>
+        <v>19550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>1753</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>1199786</v>
+        <v>46889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D14" s="7">
-        <v>124527</v>
+        <v>145890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>124084</v>
+        <v>153751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="N14" s="7">
-        <v>248611</v>
+        <v>299641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,55 +4059,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173230</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346530</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>178</v>
+      </c>
+      <c r="D16" s="7">
+        <v>124527</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>194</v>
+      </c>
+      <c r="I16" s="7">
+        <v>124084</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="7">
+        <v>372</v>
+      </c>
+      <c r="N16" s="7">
+        <v>248611</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>886</v>
+      </c>
+      <c r="D17" s="7">
+        <v>619499</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
+        <v>867</v>
+      </c>
+      <c r="I17" s="7">
+        <v>580287</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1753</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1199786</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1064</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744026</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2125</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1448397</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3556,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2098A0D-8095-442C-95CE-21D22AED22E4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3D1C3A-DAAA-42C7-9CCE-9BB610FCD0C5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3573,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3674,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>96155</v>
+        <v>12173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>85415</v>
+        <v>14774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>181569</v>
+        <v>26947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7">
-        <v>21783</v>
+        <v>46330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I5" s="7">
-        <v>18388</v>
+        <v>42595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>40172</v>
+        <v>88924</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3791,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3806,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3829,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>171582</v>
+        <v>28990</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>167621</v>
+        <v>21520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>339203</v>
+        <v>50509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7">
-        <v>33473</v>
+        <v>146309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="I8" s="7">
-        <v>29915</v>
+        <v>137245</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>84</v>
+        <v>457</v>
       </c>
       <c r="N8" s="7">
-        <v>63388</v>
+        <v>283554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>197536</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>402591</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3984,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>349054</v>
+        <v>32006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>393</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>300907</v>
+        <v>25168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>806</v>
+        <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>649962</v>
+        <v>57174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>53656</v>
+        <v>170472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="I11" s="7">
-        <v>49901</v>
+        <v>150213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>103557</v>
+        <v>320685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>175381</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>377859</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4133,55 +4858,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>831</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>616792</v>
+        <v>35743</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>792</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>553942</v>
+        <v>36743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>1623</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>1170734</v>
+        <v>72486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="D14" s="7">
-        <v>108912</v>
+        <v>253681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="I14" s="7">
-        <v>98205</v>
+        <v>223890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>295</v>
+        <v>591</v>
       </c>
       <c r="N14" s="7">
-        <v>207117</v>
+        <v>477571</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,55 +4966,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>146</v>
+      </c>
+      <c r="D16" s="7">
+        <v>108912</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H16" s="7">
+        <v>149</v>
+      </c>
+      <c r="I16" s="7">
+        <v>98205</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="7">
+        <v>295</v>
+      </c>
+      <c r="N16" s="7">
+        <v>207117</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>831</v>
+      </c>
+      <c r="D17" s="7">
+        <v>616792</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="7">
+        <v>792</v>
+      </c>
+      <c r="I17" s="7">
+        <v>553942</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1623</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1170734</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652147</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1918</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1377851</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F054F8C-9DC3-4523-8934-8F229B90D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AE12C2-6745-4D49-ADCE-861D51C8A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBF9670D-A5A1-4395-84FB-7F7A7F5BF2E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB6B191-D383-47D5-92D6-40E6A20B2C78}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,5%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1015 +140,1003 @@
     <t>27,17%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>83,45%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>21,81%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>85,9%</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>86,54%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E201D5-030A-4BFD-AF9F-945C1D3FB056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD8408-8BFB-4DFF-91DC-97F2BDD3D011}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2009,13 +1997,13 @@
         <v>21108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2024,13 +2012,13 @@
         <v>41918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,13 +2033,13 @@
         <v>120705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>159</v>
@@ -2060,13 +2048,13 @@
         <v>106440</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -2075,13 +2063,13 @@
         <v>227145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2125,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2149,13 +2137,13 @@
         <v>33899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2164,13 +2152,13 @@
         <v>26148</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -2179,13 +2167,13 @@
         <v>60047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2188,13 @@
         <v>172150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>247</v>
@@ -2215,13 +2203,13 @@
         <v>167949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>506</v>
@@ -2230,13 +2218,13 @@
         <v>340099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2292,13 @@
         <v>157029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -2319,13 +2307,13 @@
         <v>131661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -2334,13 +2322,13 @@
         <v>288690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2343,13 @@
         <v>565671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>817</v>
@@ -2370,13 +2358,13 @@
         <v>549360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1668</v>
@@ -2385,13 +2373,13 @@
         <v>1115031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2435,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734D2810-2DAB-4B19-B131-3CB8DA7AFF57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2534BE4D-E00F-49E7-81C8-D106B3B86E79}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2591,13 +2579,13 @@
         <v>40102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -2606,13 +2594,13 @@
         <v>51020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -2621,13 +2609,13 @@
         <v>91122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2630,13 @@
         <v>104332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -2657,13 +2645,13 @@
         <v>95741</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>289</v>
@@ -2672,13 +2660,13 @@
         <v>200073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2734,13 @@
         <v>96303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>107</v>
@@ -2761,13 +2749,13 @@
         <v>75294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -2776,13 +2764,13 @@
         <v>171598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2785,13 @@
         <v>171946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>232</v>
@@ -2812,13 +2800,13 @@
         <v>160311</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>473</v>
@@ -2827,13 +2815,13 @@
         <v>332256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2889,13 @@
         <v>27582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -2916,13 +2904,13 @@
         <v>22629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2931,13 +2919,13 @@
         <v>50211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2940,13 @@
         <v>130989</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -2967,13 +2955,13 @@
         <v>134414</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>381</v>
@@ -2982,13 +2970,13 @@
         <v>265403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3032,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3044,13 @@
         <v>42830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3071,13 +3059,13 @@
         <v>18874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3086,13 +3074,13 @@
         <v>61704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3095,13 @@
         <v>136268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>215</v>
@@ -3122,13 +3110,13 @@
         <v>152463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -3137,13 +3125,13 @@
         <v>288731</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3199,13 @@
         <v>206817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -3226,13 +3214,13 @@
         <v>167818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>536</v>
@@ -3241,13 +3229,13 @@
         <v>374635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3250,13 @@
         <v>543535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>781</v>
@@ -3277,13 +3265,13 @@
         <v>542928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1558</v>
@@ -3292,13 +3280,13 @@
         <v>1086462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3342,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE5DBBF-8F19-4C0F-9434-6254D3B41468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EBB784-9DCF-45D9-975E-C820EDCC92FE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3391,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3498,13 +3486,13 @@
         <v>24016</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -3513,13 +3501,13 @@
         <v>28663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3528,13 +3516,13 @@
         <v>52679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3537,13 @@
         <v>100148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>165</v>
@@ -3564,13 +3552,13 @@
         <v>102991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>317</v>
@@ -3579,10 +3567,10 @@
         <v>203139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>212</v>
@@ -3951,7 +3939,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4139,7 +4127,7 @@
         <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>372</v>
@@ -4148,13 +4136,13 @@
         <v>248611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4157,13 @@
         <v>619499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -4184,13 +4172,13 @@
         <v>580287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>1753</v>
@@ -4199,13 +4187,13 @@
         <v>1199786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,7 +4249,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3D1C3A-DAAA-42C7-9CCE-9BB610FCD0C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53914BFE-05A9-4CCE-9359-CCBE1DBB712A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4405,13 +4393,13 @@
         <v>12173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4420,13 +4408,13 @@
         <v>14774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -4435,13 +4423,13 @@
         <v>26947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4444,13 @@
         <v>46330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4471,13 +4459,13 @@
         <v>42595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
@@ -4486,13 +4474,13 @@
         <v>88924</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4548,13 @@
         <v>28990</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4575,13 +4563,13 @@
         <v>21520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>77</v>
@@ -4590,13 +4578,13 @@
         <v>50509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4599,13 @@
         <v>146309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>224</v>
@@ -4626,13 +4614,13 @@
         <v>137245</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
@@ -4641,13 +4629,13 @@
         <v>283554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4703,13 @@
         <v>32006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4730,13 +4718,13 @@
         <v>25168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -4745,13 +4733,13 @@
         <v>57174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4754,13 @@
         <v>170472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>196</v>
@@ -4781,13 +4769,13 @@
         <v>150213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -4796,13 +4784,13 @@
         <v>320685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4846,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4870,13 +4858,13 @@
         <v>35743</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4885,13 +4873,13 @@
         <v>36743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -4900,13 +4888,13 @@
         <v>72486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4909,7 @@
         <v>253681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>346</v>
@@ -5025,13 +5013,13 @@
         <v>108912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -5040,13 +5028,13 @@
         <v>98205</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
@@ -5055,13 +5043,13 @@
         <v>207117</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5064,13 @@
         <v>616792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>792</v>
@@ -5091,13 +5079,13 @@
         <v>553942</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>1623</v>
@@ -5106,13 +5094,13 @@
         <v>1170734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5156,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AE12C2-6745-4D49-ADCE-861D51C8A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1A33A0-CA27-4D34-BD8C-57B558819B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB6B191-D383-47D5-92D6-40E6A20B2C78}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7EA19253-96F9-4AD1-B528-392BA7B19E32}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,226 +137,226 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>85,29%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -365,778 +365,778 @@
     <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
     <t>27,76%</t>
   </si>
   <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD8408-8BFB-4DFF-91DC-97F2BDD3D011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925BDD3D-65DF-45F2-9386-68E51230CEF2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1666,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>33377</v>
+        <v>33143</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1681,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>33143</v>
+        <v>33377</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1717,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>88003</v>
+        <v>73028</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1732,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7">
-        <v>73028</v>
+        <v>88003</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1768,25 +1768,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1821,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>68943</v>
+        <v>51262</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1836,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="I7" s="7">
-        <v>51262</v>
+        <v>68943</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>184813</v>
+        <v>201943</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1887,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="I8" s="7">
-        <v>201943</v>
+        <v>184813</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1923,25 +1923,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1976,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>20810</v>
+        <v>21108</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1991,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>21108</v>
+        <v>20810</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2027,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7">
-        <v>120705</v>
+        <v>106440</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2042,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>106440</v>
+        <v>120705</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2078,25 +2078,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2131,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>33899</v>
+        <v>26148</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2146,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>26148</v>
+        <v>33899</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2182,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>172150</v>
+        <v>167949</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2197,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>167949</v>
+        <v>172150</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2233,25 +2233,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2286,10 +2286,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7">
-        <v>157029</v>
+        <v>131661</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2301,10 +2301,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="I16" s="7">
-        <v>131661</v>
+        <v>157029</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2337,10 +2337,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="D17" s="7">
-        <v>565671</v>
+        <v>549360</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2352,10 +2352,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="I17" s="7">
-        <v>549360</v>
+        <v>565671</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2388,25 +2388,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2455,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2534BE4D-E00F-49E7-81C8-D106B3B86E79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1712293B-974D-4E92-809F-41E081DBA599}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2573,10 +2573,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>40102</v>
+        <v>51020</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2588,10 +2588,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>51020</v>
+        <v>40102</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2624,10 +2624,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="7">
-        <v>104332</v>
+        <v>95741</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2639,10 +2639,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7">
-        <v>95741</v>
+        <v>104332</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2675,25 +2675,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144434</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2728,34 +2728,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
-        <v>96303</v>
+        <v>75294</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>132</v>
+      </c>
+      <c r="I7" s="7">
+        <v>96303</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="7">
-        <v>107</v>
-      </c>
-      <c r="I7" s="7">
-        <v>75294</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -2764,13 +2764,13 @@
         <v>171598</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,34 +2779,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7">
+        <v>160311</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7">
         <v>241</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>171946</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="7">
-        <v>232</v>
-      </c>
-      <c r="I8" s="7">
-        <v>160311</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>473</v>
@@ -2815,13 +2815,13 @@
         <v>332256</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,25 +2830,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>339</v>
+      </c>
+      <c r="D9" s="7">
+        <v>235605</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>373</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268249</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>339</v>
-      </c>
-      <c r="I9" s="7">
-        <v>235605</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2883,34 +2883,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7">
+        <v>22629</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
         <v>38</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>27582</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="7">
-        <v>32</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22629</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2919,13 +2919,13 @@
         <v>50211</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,34 +2934,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>134414</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
         <v>190</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>130989</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>134414</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>381</v>
@@ -2970,10 +2970,10 @@
         <v>265403</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>159</v>
@@ -2985,25 +2985,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3038,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>42830</v>
+        <v>18874</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>160</v>
@@ -3053,10 +3053,10 @@
         <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>18874</v>
+        <v>42830</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>163</v>
@@ -3080,7 +3080,7 @@
         <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,34 +3089,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>215</v>
+      </c>
+      <c r="D14" s="7">
+        <v>152463</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="7">
         <v>200</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>136268</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="7">
-        <v>215</v>
-      </c>
-      <c r="I14" s="7">
-        <v>152463</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -3125,13 +3125,13 @@
         <v>288731</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,25 +3140,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179098</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3193,34 +3193,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>243</v>
+      </c>
+      <c r="D16" s="7">
+        <v>167818</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
         <v>293</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>206817</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="7">
-        <v>243</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167818</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>536</v>
@@ -3229,13 +3229,13 @@
         <v>374635</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,34 +3244,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>781</v>
+      </c>
+      <c r="D17" s="7">
+        <v>542928</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
         <v>777</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>543535</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="7">
-        <v>781</v>
-      </c>
-      <c r="I17" s="7">
-        <v>542928</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1558</v>
@@ -3280,13 +3280,13 @@
         <v>1086462</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,25 +3295,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D18" s="7">
+        <v>710746</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1070</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>750352</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I18" s="7">
-        <v>710746</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3362,7 +3362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EBB784-9DCF-45D9-975E-C820EDCC92FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A0026B-0BBC-4965-9F24-B3CA5CB8B78B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3480,34 +3480,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28663</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>35</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>24016</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>46</v>
-      </c>
-      <c r="I4" s="7">
-        <v>28663</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3516,13 +3516,13 @@
         <v>52679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,34 +3531,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>165</v>
+      </c>
+      <c r="D5" s="7">
+        <v>102991</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="7">
         <v>152</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>100148</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="H5" s="7">
-        <v>165</v>
-      </c>
-      <c r="I5" s="7">
-        <v>102991</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>317</v>
@@ -3567,13 +3567,13 @@
         <v>203139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,25 +3582,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3635,34 +3635,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45267</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="7">
         <v>63</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>42209</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="H7" s="7">
-        <v>73</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45267</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -3671,13 +3671,13 @@
         <v>87476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,34 +3686,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>259</v>
+      </c>
+      <c r="D8" s="7">
+        <v>165250</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="7">
         <v>317</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>215852</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" s="7">
-        <v>259</v>
-      </c>
-      <c r="I8" s="7">
-        <v>165250</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>576</v>
@@ -3722,13 +3722,13 @@
         <v>381102</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,25 +3737,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3790,34 +3790,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30604</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>43</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>30963</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="7">
-        <v>46</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30604</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -3826,13 +3826,13 @@
         <v>61567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,34 +3841,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7">
+        <v>158295</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
         <v>220</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>157609</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="7">
-        <v>226</v>
-      </c>
-      <c r="I11" s="7">
-        <v>158295</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -3877,13 +3877,13 @@
         <v>315904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,25 +3892,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3945,34 +3945,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19550</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
         <v>37</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>27340</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19550</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -3981,13 +3981,13 @@
         <v>46889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,34 +3996,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>217</v>
+      </c>
+      <c r="D14" s="7">
+        <v>153751</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
         <v>197</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>145890</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="7">
-        <v>217</v>
-      </c>
-      <c r="I14" s="7">
-        <v>153751</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -4032,13 +4032,13 @@
         <v>299641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,25 +4047,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>234</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173230</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4100,34 +4100,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>194</v>
+      </c>
+      <c r="D16" s="7">
+        <v>124084</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="7">
         <v>178</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>124527</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" s="7">
-        <v>194</v>
-      </c>
-      <c r="I16" s="7">
-        <v>124084</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>372</v>
@@ -4136,13 +4136,13 @@
         <v>248611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,34 +4151,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>867</v>
+      </c>
+      <c r="D17" s="7">
+        <v>580287</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
         <v>886</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>619499</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="7">
-        <v>867</v>
-      </c>
-      <c r="I17" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>1753</v>
@@ -4187,13 +4187,13 @@
         <v>1199786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,25 +4202,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1064</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744026</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4269,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53914BFE-05A9-4CCE-9359-CCBE1DBB712A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFFD47D-6D95-4B5D-9582-FCBE1F235A7D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4286,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15085</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
-        <v>12173</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>13242</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="7">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14774</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>26947</v>
+        <v>28328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42426</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="7">
         <v>94</v>
       </c>
-      <c r="D5" s="7">
-        <v>46330</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>48202</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="7">
-        <v>80</v>
-      </c>
-      <c r="I5" s="7">
-        <v>42595</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>88924</v>
+        <v>90627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,25 +4489,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4522,7 +4522,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4542,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7">
+        <v>22728</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="7">
         <v>43</v>
       </c>
-      <c r="D7" s="7">
-        <v>28990</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>31277</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="H7" s="7">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7">
-        <v>21520</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>50509</v>
+        <v>54005</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>224</v>
+      </c>
+      <c r="D8" s="7">
+        <v>136571</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7">
         <v>233</v>
       </c>
-      <c r="D8" s="7">
-        <v>146309</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>151277</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="7">
-        <v>224</v>
-      </c>
-      <c r="I8" s="7">
-        <v>137245</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>457</v>
       </c>
       <c r="N8" s="7">
-        <v>283554</v>
+        <v>287848</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,25 +4644,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4677,7 +4677,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4697,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25591</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="7">
         <v>38</v>
       </c>
-      <c r="D10" s="7">
-        <v>32006</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>34398</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25168</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>57174</v>
+        <v>59988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>196</v>
+      </c>
+      <c r="D11" s="7">
+        <v>146758</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="7">
         <v>205</v>
       </c>
-      <c r="D11" s="7">
-        <v>170472</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>178092</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="7">
-        <v>196</v>
-      </c>
-      <c r="I11" s="7">
-        <v>150213</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>320685</v>
+        <v>324851</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,25 +4799,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7">
+        <v>172349</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>232</v>
-      </c>
       <c r="I12" s="7">
-        <v>175381</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4832,7 +4832,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377859</v>
+        <v>384839</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4852,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>50</v>
+      </c>
+      <c r="D13" s="7">
+        <v>39831</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="7">
         <v>43</v>
       </c>
-      <c r="D13" s="7">
-        <v>35743</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>37921</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>36743</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>72486</v>
+        <v>77752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>292</v>
+      </c>
+      <c r="D14" s="7">
+        <v>235627</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="7">
         <v>299</v>
       </c>
-      <c r="D14" s="7">
-        <v>253681</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>267562</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H14" s="7">
-        <v>292</v>
-      </c>
-      <c r="I14" s="7">
-        <v>223890</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>591</v>
       </c>
       <c r="N14" s="7">
-        <v>477571</v>
+        <v>503188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4957,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4972,7 +4972,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4987,7 +4987,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5007,49 +5007,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>149</v>
+      </c>
+      <c r="D16" s="7">
+        <v>103235</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="7">
         <v>146</v>
       </c>
-      <c r="D16" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>116838</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="H16" s="7">
-        <v>149</v>
-      </c>
-      <c r="I16" s="7">
-        <v>98205</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>295</v>
       </c>
       <c r="N16" s="7">
-        <v>207117</v>
+        <v>220073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,25 +5058,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>792</v>
+      </c>
+      <c r="D17" s="7">
+        <v>561382</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="7">
         <v>831</v>
       </c>
-      <c r="D17" s="7">
-        <v>616792</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="7">
-        <v>792</v>
-      </c>
       <c r="I17" s="7">
-        <v>553942</v>
+        <v>645134</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>361</v>
@@ -5085,19 +5085,19 @@
         <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>1623</v>
       </c>
       <c r="N17" s="7">
-        <v>1170734</v>
+        <v>1206516</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>365</v>
@@ -5109,25 +5109,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664617</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>652147</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5142,7 +5142,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377851</v>
+        <v>1426589</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
